--- a/Team-Info.xlsx
+++ b/Team-Info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abusharaf/Me.Projects/COVID 19 Case/covid19-case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abusharaf/Me.Projects/NovelCodeTeam/covid19-case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210321B2-979D-BD40-8912-25790A43CD70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16D53C1-7A96-BC48-9B90-FCECA012102C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14860" xr2:uid="{BCA71BBA-E0FA-1949-B235-689BD1786EA4}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>UX / UI</t>
   </si>
   <si>
-    <t>Python, AI</t>
-  </si>
-  <si>
     <t>Backend &amp; ML</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Matt Przybyla</t>
+  </si>
+  <si>
+    <t>Python, AI, Computer Vision</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -717,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -748,16 +748,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
